--- a/Code/Results/Cases/Case_0_235/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_235/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1454332105071074</v>
+        <v>0.04908414824669194</v>
       </c>
       <c r="D2">
-        <v>0.01475235532547003</v>
+        <v>0.02285065723522273</v>
       </c>
       <c r="E2">
-        <v>0.1654665727234388</v>
+        <v>0.08923344112572096</v>
       </c>
       <c r="F2">
-        <v>1.073438885249203</v>
+        <v>0.9892913280850166</v>
       </c>
       <c r="G2">
-        <v>1.030482879716473</v>
+        <v>0.8521200284607033</v>
       </c>
       <c r="H2">
-        <v>0.607020116312043</v>
+        <v>0.8602198199418893</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.678106936266033</v>
+        <v>1.215002793583153</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.071730106469047</v>
+        <v>0.3931538099406495</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1253825056964217</v>
+        <v>0.04357890026741984</v>
       </c>
       <c r="D3">
-        <v>0.01575867365889039</v>
+        <v>0.02310382918422427</v>
       </c>
       <c r="E3">
-        <v>0.1441232844705667</v>
+        <v>0.0846545358746873</v>
       </c>
       <c r="F3">
-        <v>0.9679784337518385</v>
+        <v>0.9733567836959907</v>
       </c>
       <c r="G3">
-        <v>0.9255726843176717</v>
+        <v>0.8357737081999375</v>
       </c>
       <c r="H3">
-        <v>0.568139261077647</v>
+        <v>0.8593017098962719</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.186825493741594</v>
+        <v>1.07158942560136</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9248430578133124</v>
+        <v>0.3531198535792441</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1132507113989192</v>
+        <v>0.04021604835791948</v>
       </c>
       <c r="D4">
-        <v>0.01641283540214467</v>
+        <v>0.02326941884447642</v>
       </c>
       <c r="E4">
-        <v>0.1314838344196119</v>
+        <v>0.08192774140342607</v>
       </c>
       <c r="F4">
-        <v>0.9063999980534163</v>
+        <v>0.9644558733761244</v>
       </c>
       <c r="G4">
-        <v>0.8645751733045586</v>
+        <v>0.8265939783176179</v>
       </c>
       <c r="H4">
-        <v>0.5461174516531457</v>
+        <v>0.8593748282463167</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.887430357803709</v>
+        <v>0.9835886444212463</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8358437006823323</v>
+        <v>0.3286707486100084</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1083455547843784</v>
+        <v>0.03884994313415291</v>
       </c>
       <c r="D5">
-        <v>0.01668786697424274</v>
+        <v>0.02333944588709258</v>
       </c>
       <c r="E5">
-        <v>0.1264364649508032</v>
+        <v>0.08083753496028123</v>
       </c>
       <c r="F5">
-        <v>0.8820299015140876</v>
+        <v>0.9610492454698516</v>
       </c>
       <c r="G5">
-        <v>0.8404951609320221</v>
+        <v>0.8230668815005373</v>
       </c>
       <c r="H5">
-        <v>0.5375707506242975</v>
+        <v>0.8595640725918088</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.765879165282797</v>
+        <v>0.9477417793427207</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7998287211637845</v>
+        <v>0.3187402583377832</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1075332118465582</v>
+        <v>0.03862335857068899</v>
       </c>
       <c r="D6">
-        <v>0.01673402847025862</v>
+        <v>0.02335122766109876</v>
       </c>
       <c r="E6">
-        <v>0.1256042135059836</v>
+        <v>0.08065776547421777</v>
       </c>
       <c r="F6">
-        <v>0.8780248961149795</v>
+        <v>0.9604968563629228</v>
       </c>
       <c r="G6">
-        <v>0.8365413314167824</v>
+        <v>0.8224940658713393</v>
       </c>
       <c r="H6">
-        <v>0.5361763309201848</v>
+        <v>0.8596051065646435</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.745720054362238</v>
+        <v>0.9417902969294971</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7938624621759161</v>
+        <v>0.3170932712149153</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1131844104437931</v>
+        <v>0.04019760735455691</v>
       </c>
       <c r="D7">
-        <v>0.0164165111612089</v>
+        <v>0.0232703529399263</v>
       </c>
       <c r="E7">
-        <v>0.1314153628263846</v>
+        <v>0.08191295393667986</v>
       </c>
       <c r="F7">
-        <v>0.9060684990111838</v>
+        <v>0.9644090392851297</v>
       </c>
       <c r="G7">
-        <v>0.8642473802061517</v>
+        <v>0.826545547678279</v>
       </c>
       <c r="H7">
-        <v>0.546000505687843</v>
+        <v>0.8593767357882598</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.885789375747578</v>
+        <v>0.98310514341199</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8353570240620982</v>
+        <v>0.3285366906524843</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1384784300174857</v>
+        <v>0.04718227329689739</v>
       </c>
       <c r="D8">
-        <v>0.01509137659398974</v>
+        <v>0.02293584467701315</v>
       </c>
       <c r="E8">
-        <v>0.1580021673856464</v>
+        <v>0.08763687426301203</v>
       </c>
       <c r="F8">
-        <v>1.036370356576299</v>
+        <v>0.9836129490058454</v>
       </c>
       <c r="G8">
-        <v>0.9935487437531236</v>
+        <v>0.8463048750141837</v>
       </c>
       <c r="H8">
-        <v>0.5932058536189118</v>
+        <v>0.8597706599350232</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.508174810987441</v>
+        <v>1.165542376577605</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.020807388714246</v>
+        <v>0.3793224379474367</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1898256328394865</v>
+        <v>0.06102192432767595</v>
       </c>
       <c r="D9">
-        <v>0.01281548427845713</v>
+        <v>0.02236046429930205</v>
       </c>
       <c r="E9">
-        <v>0.2145203299578284</v>
+        <v>0.09954780427774779</v>
       </c>
       <c r="F9">
-        <v>1.320793302040258</v>
+        <v>1.028346988361932</v>
       </c>
       <c r="G9">
-        <v>1.27832648162638</v>
+        <v>0.8919357459078583</v>
       </c>
       <c r="H9">
-        <v>0.7023596278727666</v>
+        <v>0.8656286878378694</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.752189524104267</v>
+        <v>1.523754787574262</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.396237070066647</v>
+        <v>0.479985702874032</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2291150187008668</v>
+        <v>0.07128452510127659</v>
       </c>
       <c r="D10">
-        <v>0.0113972468146315</v>
+        <v>0.02198707500239649</v>
       </c>
       <c r="E10">
-        <v>0.2597973296076503</v>
+        <v>0.1087382133640347</v>
       </c>
       <c r="F10">
-        <v>1.553143126206464</v>
+        <v>1.065627061577047</v>
       </c>
       <c r="G10">
-        <v>1.512957510505657</v>
+        <v>0.9297762795294204</v>
       </c>
       <c r="H10">
-        <v>0.795612703018918</v>
+        <v>0.873079768908525</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.689352749426746</v>
+        <v>1.787256869934481</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.682874690683363</v>
+        <v>0.5546409417873122</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2474560210637691</v>
+        <v>0.07597550071029957</v>
       </c>
       <c r="D11">
-        <v>0.01082291034576777</v>
+        <v>0.02182798557932841</v>
       </c>
       <c r="E11">
-        <v>0.2814913975050715</v>
+        <v>0.1130192139581538</v>
       </c>
       <c r="F11">
-        <v>1.665399491518883</v>
+        <v>1.083567249107773</v>
       </c>
       <c r="G11">
-        <v>1.626848895299958</v>
+        <v>0.9479540824455057</v>
       </c>
       <c r="H11">
-        <v>0.8416279573002043</v>
+        <v>0.8771631241645252</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.123002014630515</v>
+        <v>1.907213667732037</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.816559274128423</v>
+        <v>0.5887652705097537</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2544807068556736</v>
+        <v>0.07775519957745303</v>
       </c>
       <c r="D12">
-        <v>0.01061721341616284</v>
+        <v>0.0217692973020398</v>
       </c>
       <c r="E12">
-        <v>0.2898915236158928</v>
+        <v>0.1146550915222946</v>
       </c>
       <c r="F12">
-        <v>1.708992928378976</v>
+        <v>1.090503543150191</v>
       </c>
       <c r="G12">
-        <v>1.671162864023103</v>
+        <v>0.9549781940307014</v>
       </c>
       <c r="H12">
-        <v>0.8596423193531564</v>
+        <v>0.8788099631826469</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.28848455635648</v>
+        <v>1.952651385875299</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.867745597035054</v>
+        <v>0.6017114241057158</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2529640782433091</v>
+        <v>0.07737175999615431</v>
       </c>
       <c r="D13">
-        <v>0.01066096091645186</v>
+        <v>0.02178186757305767</v>
       </c>
       <c r="E13">
-        <v>0.2880737005786003</v>
+        <v>0.1143021142898135</v>
       </c>
       <c r="F13">
-        <v>1.699553628513698</v>
+        <v>1.089003313993445</v>
       </c>
       <c r="G13">
-        <v>1.661563605120278</v>
+        <v>0.9534591426793497</v>
       </c>
       <c r="H13">
-        <v>0.8557351331122334</v>
+        <v>0.8784508018107715</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.252784767036133</v>
+        <v>1.942864996139406</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.856695118530155</v>
+        <v>0.5989221617989102</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.248032281650481</v>
+        <v>0.07612185034211905</v>
       </c>
       <c r="D14">
-        <v>0.01080574101842835</v>
+        <v>0.02182312604346848</v>
       </c>
       <c r="E14">
-        <v>0.2821786023998598</v>
+        <v>0.1131535008986972</v>
       </c>
       <c r="F14">
-        <v>1.668963343209796</v>
+        <v>1.084135032242628</v>
       </c>
       <c r="G14">
-        <v>1.630469897052336</v>
+        <v>0.9485291318165139</v>
       </c>
       <c r="H14">
-        <v>0.8430977479440571</v>
+        <v>0.8772965906634056</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.136589599307854</v>
+        <v>1.91095160195448</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.82075856752499</v>
+        <v>0.5898298740521284</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2450221299084632</v>
+        <v>0.07535668093390768</v>
       </c>
       <c r="D15">
-        <v>0.01089601104170335</v>
+        <v>0.02184860083440654</v>
       </c>
       <c r="E15">
-        <v>0.2785926579332525</v>
+        <v>0.1124518738309135</v>
       </c>
       <c r="F15">
-        <v>1.650371629757615</v>
+        <v>1.081171705719072</v>
       </c>
       <c r="G15">
-        <v>1.611583523264073</v>
+        <v>0.9455277226867622</v>
       </c>
       <c r="H15">
-        <v>0.8354360552385174</v>
+        <v>0.876602722566048</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.06558881916817</v>
+        <v>1.891405378194463</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.798822554774873</v>
+        <v>0.5842637281969303</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2279268055386723</v>
+        <v>0.07097841921404324</v>
       </c>
       <c r="D16">
-        <v>0.01143633754330153</v>
+        <v>0.02199768912540279</v>
       </c>
       <c r="E16">
-        <v>0.2584038979388339</v>
+        <v>0.1084604860625191</v>
       </c>
       <c r="F16">
-        <v>1.545950561258209</v>
+        <v>1.064474513035478</v>
       </c>
       <c r="G16">
-        <v>1.505671388201307</v>
+        <v>0.9286078816316206</v>
       </c>
       <c r="H16">
-        <v>0.7926838113549195</v>
+        <v>0.8728269409355107</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.661177995526998</v>
+        <v>1.779419186098949</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.674211715363612</v>
+        <v>0.5524141674103618</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.217567372891935</v>
+        <v>0.06829832079002074</v>
       </c>
       <c r="D17">
-        <v>0.01178701146069727</v>
+        <v>0.02209191253855991</v>
       </c>
       <c r="E17">
-        <v>0.2463180467449035</v>
+        <v>0.1060378141531615</v>
       </c>
       <c r="F17">
-        <v>1.483666549183781</v>
+        <v>1.054483813071428</v>
       </c>
       <c r="G17">
-        <v>1.442636000508259</v>
+        <v>0.9184763882624054</v>
       </c>
       <c r="H17">
-        <v>0.7674259741593232</v>
+        <v>0.8706888861224797</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.415106806019253</v>
+        <v>1.710741885930588</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.598670195142034</v>
+        <v>0.5329176879040176</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.211652155471441</v>
+        <v>0.06675890786708294</v>
       </c>
       <c r="D18">
-        <v>0.01199526547579666</v>
+        <v>0.02214712034583854</v>
       </c>
       <c r="E18">
-        <v>0.2394680343843802</v>
+        <v>0.1046537715565137</v>
       </c>
       <c r="F18">
-        <v>1.448450386165092</v>
+        <v>1.048829693184672</v>
       </c>
       <c r="G18">
-        <v>1.407042840444603</v>
+        <v>0.9127396356836357</v>
       </c>
       <c r="H18">
-        <v>0.7532317588242563</v>
+        <v>0.8695243917223934</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.274248620493381</v>
+        <v>1.671248836425889</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.555524537539682</v>
+        <v>0.5217191651951509</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.209656450166932</v>
+        <v>0.06623804834045188</v>
       </c>
       <c r="D19">
-        <v>0.0120668579862695</v>
+        <v>0.02216598653660284</v>
       </c>
       <c r="E19">
-        <v>0.2371653911393565</v>
+        <v>0.1041867650594952</v>
       </c>
       <c r="F19">
-        <v>1.436627199426511</v>
+        <v>1.046931102809694</v>
       </c>
       <c r="G19">
-        <v>1.395101047384287</v>
+        <v>0.9108127734731397</v>
       </c>
       <c r="H19">
-        <v>0.7484810446469226</v>
+        <v>0.8691412980757889</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.226666352926031</v>
+        <v>1.657878598544983</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.540965800369534</v>
+        <v>0.5179301559788598</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2186655929852463</v>
+        <v>0.06858340288471254</v>
       </c>
       <c r="D20">
-        <v>0.01174899235146931</v>
+        <v>0.02208177740656225</v>
       </c>
       <c r="E20">
-        <v>0.2475939209782396</v>
+        <v>0.1062947349128223</v>
       </c>
       <c r="F20">
-        <v>1.490232901735524</v>
+        <v>1.055537779184874</v>
       </c>
       <c r="G20">
-        <v>1.44927652249757</v>
+        <v>0.9195455106517443</v>
       </c>
       <c r="H20">
-        <v>0.7700797095888561</v>
+        <v>0.8709097260511953</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.441230125823211</v>
+        <v>1.71805184130983</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.606679662419523</v>
+        <v>0.5349915303381181</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2494786129960431</v>
+        <v>0.07648888799640474</v>
       </c>
       <c r="D21">
-        <v>0.01076288138293613</v>
+        <v>0.02181096515646885</v>
       </c>
       <c r="E21">
-        <v>0.2839048770572887</v>
+        <v>0.1134904732953572</v>
       </c>
       <c r="F21">
-        <v>1.677917805511058</v>
+        <v>1.085561077833788</v>
       </c>
       <c r="G21">
-        <v>1.639569340802979</v>
+        <v>0.9499733647831476</v>
       </c>
       <c r="H21">
-        <v>0.846793032887831</v>
+        <v>0.8776328749330276</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.170682644197598</v>
+        <v>1.920324995193937</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.831297954591889</v>
+        <v>0.592499843414501</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.270085910367996</v>
+        <v>0.08167502497930457</v>
       </c>
       <c r="D22">
-        <v>0.01018808793564752</v>
+        <v>0.02164304379029502</v>
       </c>
       <c r="E22">
-        <v>0.3087303591994512</v>
+        <v>0.1182794717553151</v>
       </c>
       <c r="F22">
-        <v>1.806980662224333</v>
+        <v>1.106015765023443</v>
       </c>
       <c r="G22">
-        <v>1.770936426819389</v>
+        <v>0.9706800033857235</v>
       </c>
       <c r="H22">
-        <v>0.9004058481414177</v>
+        <v>0.8826133585338027</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.654939368489408</v>
+        <v>2.052596138808667</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.981430376933119</v>
+        <v>0.6302250609795692</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2590400928993546</v>
+        <v>0.07890527428631344</v>
       </c>
       <c r="D23">
-        <v>0.01048788384946597</v>
+        <v>0.0217318341230559</v>
       </c>
       <c r="E23">
-        <v>0.2953703754340182</v>
+        <v>0.115715495128363</v>
       </c>
       <c r="F23">
-        <v>1.73746022160573</v>
+        <v>1.095021979650497</v>
       </c>
       <c r="G23">
-        <v>1.700125578844137</v>
+        <v>0.9595527762336076</v>
       </c>
       <c r="H23">
-        <v>0.8714470621250712</v>
+        <v>0.8799012517788753</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.395716035205282</v>
+        <v>1.981993770129009</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.900964258954275</v>
+        <v>0.6100773940174236</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2181689622412932</v>
+        <v>0.06845451288273807</v>
       </c>
       <c r="D24">
-        <v>0.01176616020494414</v>
+        <v>0.02208635626830002</v>
       </c>
       <c r="E24">
-        <v>0.2470167940506087</v>
+        <v>0.1061785537050852</v>
       </c>
       <c r="F24">
-        <v>1.487262421028632</v>
+        <v>1.055061001924969</v>
       </c>
       <c r="G24">
-        <v>1.446272339683645</v>
+        <v>0.9190618865276008</v>
       </c>
       <c r="H24">
-        <v>0.7688789430953022</v>
+        <v>0.8708096828345617</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.429417884398504</v>
+        <v>1.714747040253087</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.603057703752043</v>
+        <v>0.5340539142521123</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1756995062903002</v>
+        <v>0.05726187007421402</v>
       </c>
       <c r="D25">
-        <v>0.01339127606818025</v>
+        <v>0.02250747300760203</v>
       </c>
       <c r="E25">
-        <v>0.198657669928032</v>
+        <v>0.09624994052632729</v>
       </c>
       <c r="F25">
-        <v>1.240198117680521</v>
+        <v>1.01547740891354</v>
       </c>
       <c r="G25">
-        <v>1.197328936521416</v>
+        <v>0.8788421978759402</v>
       </c>
       <c r="H25">
-        <v>0.6707705831525175</v>
+        <v>0.8634946619776827</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.412278972254342</v>
+        <v>1.426795614467665</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.293063467273228</v>
+        <v>0.4526342922638378</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_235/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_235/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04908414824669194</v>
+        <v>0.1454332105070222</v>
       </c>
       <c r="D2">
-        <v>0.02285065723522273</v>
+        <v>0.01475235532560859</v>
       </c>
       <c r="E2">
-        <v>0.08923344112572096</v>
+        <v>0.1654665727234743</v>
       </c>
       <c r="F2">
-        <v>0.9892913280850166</v>
+        <v>1.073438885249203</v>
       </c>
       <c r="G2">
-        <v>0.8521200284607033</v>
+        <v>1.030482879716573</v>
       </c>
       <c r="H2">
-        <v>0.8602198199418893</v>
+        <v>0.6070201163120288</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.215002793583153</v>
+        <v>3.678106936265976</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3931538099406495</v>
+        <v>1.071730106469062</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04357890026741984</v>
+        <v>0.1253825056964502</v>
       </c>
       <c r="D3">
-        <v>0.02310382918422427</v>
+        <v>0.01575867365918882</v>
       </c>
       <c r="E3">
-        <v>0.0846545358746873</v>
+        <v>0.1441232844705418</v>
       </c>
       <c r="F3">
-        <v>0.9733567836959907</v>
+        <v>0.9679784337518242</v>
       </c>
       <c r="G3">
-        <v>0.8357737081999375</v>
+        <v>0.9255726843176433</v>
       </c>
       <c r="H3">
-        <v>0.8593017098962719</v>
+        <v>0.5681392610776328</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.07158942560136</v>
+        <v>3.186825493741821</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3531198535792441</v>
+        <v>0.9248430578133338</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04021604835791948</v>
+        <v>0.1132507113988339</v>
       </c>
       <c r="D4">
-        <v>0.02326941884447642</v>
+        <v>0.01641283540213934</v>
       </c>
       <c r="E4">
-        <v>0.08192774140342607</v>
+        <v>0.1314838344196225</v>
       </c>
       <c r="F4">
-        <v>0.9644558733761244</v>
+        <v>0.9063999980534021</v>
       </c>
       <c r="G4">
-        <v>0.8265939783176179</v>
+        <v>0.8645751733045302</v>
       </c>
       <c r="H4">
-        <v>0.8593748282463167</v>
+        <v>0.5461174516531457</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9835886444212463</v>
+        <v>2.887430357803794</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3286707486100084</v>
+        <v>0.8358437006823252</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03884994313415291</v>
+        <v>0.1083455547842505</v>
       </c>
       <c r="D5">
-        <v>0.02333944588709258</v>
+        <v>0.01668786697425517</v>
       </c>
       <c r="E5">
-        <v>0.08083753496028123</v>
+        <v>0.1264364649508032</v>
       </c>
       <c r="F5">
-        <v>0.9610492454698516</v>
+        <v>0.8820299015140733</v>
       </c>
       <c r="G5">
-        <v>0.8230668815005373</v>
+        <v>0.840495160932079</v>
       </c>
       <c r="H5">
-        <v>0.8595640725918088</v>
+        <v>0.5375707506242975</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9477417793427207</v>
+        <v>2.765879165282655</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3187402583377832</v>
+        <v>0.7998287211637773</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03862335857068899</v>
+        <v>0.1075332118463024</v>
       </c>
       <c r="D6">
-        <v>0.02335122766109876</v>
+        <v>0.01673402847025152</v>
       </c>
       <c r="E6">
-        <v>0.08065776547421777</v>
+        <v>0.1256042135059765</v>
       </c>
       <c r="F6">
-        <v>0.9604968563629228</v>
+        <v>0.8780248961149795</v>
       </c>
       <c r="G6">
-        <v>0.8224940658713393</v>
+        <v>0.8365413314167682</v>
       </c>
       <c r="H6">
-        <v>0.8596051065646435</v>
+        <v>0.5361763309201848</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9417902969294971</v>
+        <v>2.745720054362124</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3170932712149153</v>
+        <v>0.7938624621759161</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04019760735455691</v>
+        <v>0.1131844104438073</v>
       </c>
       <c r="D7">
-        <v>0.0232703529399263</v>
+        <v>0.01641651116121601</v>
       </c>
       <c r="E7">
-        <v>0.08191295393667986</v>
+        <v>0.1314153628264059</v>
       </c>
       <c r="F7">
-        <v>0.9644090392851297</v>
+        <v>0.9060684990112122</v>
       </c>
       <c r="G7">
-        <v>0.826545547678279</v>
+        <v>0.8642473802062085</v>
       </c>
       <c r="H7">
-        <v>0.8593767357882598</v>
+        <v>0.5460005056879567</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.98310514341199</v>
+        <v>2.885789375747692</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3285366906524843</v>
+        <v>0.8353570240620982</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04718227329689739</v>
+        <v>0.1384784300177841</v>
       </c>
       <c r="D8">
-        <v>0.02293584467701315</v>
+        <v>0.01509137659402704</v>
       </c>
       <c r="E8">
-        <v>0.08763687426301203</v>
+        <v>0.1580021673856038</v>
       </c>
       <c r="F8">
-        <v>0.9836129490058454</v>
+        <v>1.036370356576299</v>
       </c>
       <c r="G8">
-        <v>0.8463048750141837</v>
+        <v>0.9935487437531805</v>
       </c>
       <c r="H8">
-        <v>0.8597706599350232</v>
+        <v>0.5932058536189118</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.165542376577605</v>
+        <v>3.508174810987327</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3793224379474367</v>
+        <v>1.02080738871426</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06102192432767595</v>
+        <v>0.1898256328393586</v>
       </c>
       <c r="D9">
-        <v>0.02236046429930205</v>
+        <v>0.01281548427853529</v>
       </c>
       <c r="E9">
-        <v>0.09954780427774779</v>
+        <v>0.2145203299578498</v>
       </c>
       <c r="F9">
-        <v>1.028346988361932</v>
+        <v>1.320793302040272</v>
       </c>
       <c r="G9">
-        <v>0.8919357459078583</v>
+        <v>1.278326481626323</v>
       </c>
       <c r="H9">
-        <v>0.8656286878378694</v>
+        <v>0.7023596278726245</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.523754787574262</v>
+        <v>4.752189524104381</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.479985702874032</v>
+        <v>1.396237070066618</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07128452510127659</v>
+        <v>0.2291150187007247</v>
       </c>
       <c r="D10">
-        <v>0.02198707500239649</v>
+        <v>0.01139724681461729</v>
       </c>
       <c r="E10">
-        <v>0.1087382133640347</v>
+        <v>0.2597973296076432</v>
       </c>
       <c r="F10">
-        <v>1.065627061577047</v>
+        <v>1.553143126206479</v>
       </c>
       <c r="G10">
-        <v>0.9297762795294204</v>
+        <v>1.512957510505714</v>
       </c>
       <c r="H10">
-        <v>0.873079768908525</v>
+        <v>0.795612703018918</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.787256869934481</v>
+        <v>5.68935274942686</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5546409417873122</v>
+        <v>1.682874690683349</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07597550071029957</v>
+        <v>0.2474560210637549</v>
       </c>
       <c r="D11">
-        <v>0.02182798557932841</v>
+        <v>0.01082291034596849</v>
       </c>
       <c r="E11">
-        <v>0.1130192139581538</v>
+        <v>0.2814913975050857</v>
       </c>
       <c r="F11">
-        <v>1.083567249107773</v>
+        <v>1.665399491518883</v>
       </c>
       <c r="G11">
-        <v>0.9479540824455057</v>
+        <v>1.626848895300043</v>
       </c>
       <c r="H11">
-        <v>0.8771631241645252</v>
+        <v>0.8416279573002043</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.907213667732037</v>
+        <v>6.123002014630345</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5887652705097537</v>
+        <v>1.816559274128423</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07775519957745303</v>
+        <v>0.2544807068557589</v>
       </c>
       <c r="D12">
-        <v>0.0217692973020398</v>
+        <v>0.01061721341626587</v>
       </c>
       <c r="E12">
-        <v>0.1146550915222946</v>
+        <v>0.2898915236159283</v>
       </c>
       <c r="F12">
-        <v>1.090503543150191</v>
+        <v>1.708992928378947</v>
       </c>
       <c r="G12">
-        <v>0.9549781940307014</v>
+        <v>1.671162864023074</v>
       </c>
       <c r="H12">
-        <v>0.8788099631826469</v>
+        <v>0.8596423193531564</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.952651385875299</v>
+        <v>6.288484556356423</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6017114241057158</v>
+        <v>1.867745597035068</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07737175999615431</v>
+        <v>0.252964078243707</v>
       </c>
       <c r="D13">
-        <v>0.02178186757305767</v>
+        <v>0.01066096091644653</v>
       </c>
       <c r="E13">
-        <v>0.1143021142898135</v>
+        <v>0.2880737005785576</v>
       </c>
       <c r="F13">
-        <v>1.089003313993445</v>
+        <v>1.699553628513669</v>
       </c>
       <c r="G13">
-        <v>0.9534591426793497</v>
+        <v>1.66156360512025</v>
       </c>
       <c r="H13">
-        <v>0.8784508018107715</v>
+        <v>0.8557351331122618</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.942864996139406</v>
+        <v>6.252784767036133</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5989221617989102</v>
+        <v>1.856695118530126</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07612185034211905</v>
+        <v>0.248032281650481</v>
       </c>
       <c r="D14">
-        <v>0.02182312604346848</v>
+        <v>0.01080574101843723</v>
       </c>
       <c r="E14">
-        <v>0.1131535008986972</v>
+        <v>0.2821786023998669</v>
       </c>
       <c r="F14">
-        <v>1.084135032242628</v>
+        <v>1.668963343209796</v>
       </c>
       <c r="G14">
-        <v>0.9485291318165139</v>
+        <v>1.630469897052336</v>
       </c>
       <c r="H14">
-        <v>0.8772965906634056</v>
+        <v>0.8430977479440571</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.91095160195448</v>
+        <v>6.136589599307626</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5898298740521284</v>
+        <v>1.820758567524948</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07535668093390768</v>
+        <v>0.24502212990798</v>
       </c>
       <c r="D15">
-        <v>0.02184860083440654</v>
+        <v>0.01089601104170335</v>
       </c>
       <c r="E15">
-        <v>0.1124518738309135</v>
+        <v>0.2785926579332099</v>
       </c>
       <c r="F15">
-        <v>1.081171705719072</v>
+        <v>1.650371629757601</v>
       </c>
       <c r="G15">
-        <v>0.9455277226867622</v>
+        <v>1.611583523264017</v>
       </c>
       <c r="H15">
-        <v>0.876602722566048</v>
+        <v>0.8354360552385174</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.891405378194463</v>
+        <v>6.065588819168113</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5842637281969303</v>
+        <v>1.798822554774873</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07097841921404324</v>
+        <v>0.227926805538587</v>
       </c>
       <c r="D16">
-        <v>0.02199768912540279</v>
+        <v>0.01143633754341167</v>
       </c>
       <c r="E16">
-        <v>0.1084604860625191</v>
+        <v>0.2584038979388268</v>
       </c>
       <c r="F16">
-        <v>1.064474513035478</v>
+        <v>1.545950561258223</v>
       </c>
       <c r="G16">
-        <v>0.9286078816316206</v>
+        <v>1.505671388201307</v>
       </c>
       <c r="H16">
-        <v>0.8728269409355107</v>
+        <v>0.7926838113550616</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.779419186098949</v>
+        <v>5.661177995527225</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5524141674103618</v>
+        <v>1.674211715363612</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06829832079002074</v>
+        <v>0.2175673728918213</v>
       </c>
       <c r="D17">
-        <v>0.02209191253855991</v>
+        <v>0.01178701146081629</v>
       </c>
       <c r="E17">
-        <v>0.1060378141531615</v>
+        <v>0.2463180467448751</v>
       </c>
       <c r="F17">
-        <v>1.054483813071428</v>
+        <v>1.483666549183766</v>
       </c>
       <c r="G17">
-        <v>0.9184763882624054</v>
+        <v>1.44263600050823</v>
       </c>
       <c r="H17">
-        <v>0.8706888861224797</v>
+        <v>0.7674259741593232</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.710741885930588</v>
+        <v>5.415106806019196</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5329176879040176</v>
+        <v>1.598670195142034</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06675890786708294</v>
+        <v>0.2116521554714268</v>
       </c>
       <c r="D18">
-        <v>0.02214712034583854</v>
+        <v>0.01199526547571672</v>
       </c>
       <c r="E18">
-        <v>0.1046537715565137</v>
+        <v>0.2394680343844158</v>
       </c>
       <c r="F18">
-        <v>1.048829693184672</v>
+        <v>1.448450386165121</v>
       </c>
       <c r="G18">
-        <v>0.9127396356836357</v>
+        <v>1.407042840444689</v>
       </c>
       <c r="H18">
-        <v>0.8695243917223934</v>
+        <v>0.7532317588241426</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.671248836425889</v>
+        <v>5.274248620493381</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5217191651951509</v>
+        <v>1.555524537539668</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06623804834045188</v>
+        <v>0.2096564501667899</v>
       </c>
       <c r="D19">
-        <v>0.02216598653660284</v>
+        <v>0.01206685798615403</v>
       </c>
       <c r="E19">
-        <v>0.1041867650594952</v>
+        <v>0.2371653911394063</v>
       </c>
       <c r="F19">
-        <v>1.046931102809694</v>
+        <v>1.436627199426482</v>
       </c>
       <c r="G19">
-        <v>0.9108127734731397</v>
+        <v>1.395101047384316</v>
       </c>
       <c r="H19">
-        <v>0.8691412980757889</v>
+        <v>0.7484810446467804</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.657878598544983</v>
+        <v>5.226666352926145</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5179301559788598</v>
+        <v>1.540965800369548</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06858340288471254</v>
+        <v>0.2186655929851327</v>
       </c>
       <c r="D20">
-        <v>0.02208177740656225</v>
+        <v>0.01174899235145332</v>
       </c>
       <c r="E20">
-        <v>0.1062947349128223</v>
+        <v>0.2475939209782041</v>
       </c>
       <c r="F20">
-        <v>1.055537779184874</v>
+        <v>1.490232901735553</v>
       </c>
       <c r="G20">
-        <v>0.9195455106517443</v>
+        <v>1.449276522497485</v>
       </c>
       <c r="H20">
-        <v>0.8709097260511953</v>
+        <v>0.7700797095890266</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.71805184130983</v>
+        <v>5.441230125823324</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5349915303381181</v>
+        <v>1.606679662419509</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07648888799640474</v>
+        <v>0.2494786129960431</v>
       </c>
       <c r="D21">
-        <v>0.02181096515646885</v>
+        <v>0.01076288138312442</v>
       </c>
       <c r="E21">
-        <v>0.1134904732953572</v>
+        <v>0.2839048770572745</v>
       </c>
       <c r="F21">
-        <v>1.085561077833788</v>
+        <v>1.677917805511044</v>
       </c>
       <c r="G21">
-        <v>0.9499733647831476</v>
+        <v>1.639569340803035</v>
       </c>
       <c r="H21">
-        <v>0.8776328749330276</v>
+        <v>0.846793032887831</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.920324995193937</v>
+        <v>6.170682644197598</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.592499843414501</v>
+        <v>1.831297954591875</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08167502497930457</v>
+        <v>0.2700859103683086</v>
       </c>
       <c r="D22">
-        <v>0.02164304379029502</v>
+        <v>0.01018808793553205</v>
       </c>
       <c r="E22">
-        <v>0.1182794717553151</v>
+        <v>0.3087303591994441</v>
       </c>
       <c r="F22">
-        <v>1.106015765023443</v>
+        <v>1.806980662224348</v>
       </c>
       <c r="G22">
-        <v>0.9706800033857235</v>
+        <v>1.770936426819446</v>
       </c>
       <c r="H22">
-        <v>0.8826133585338027</v>
+        <v>0.9004058481413608</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.052596138808667</v>
+        <v>6.654939368489352</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6302250609795692</v>
+        <v>1.981430376933133</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07890527428631344</v>
+        <v>0.2590400928993972</v>
       </c>
       <c r="D23">
-        <v>0.0217318341230559</v>
+        <v>0.01048788384934873</v>
       </c>
       <c r="E23">
-        <v>0.115715495128363</v>
+        <v>0.2953703754340395</v>
       </c>
       <c r="F23">
-        <v>1.095021979650497</v>
+        <v>1.73746022160573</v>
       </c>
       <c r="G23">
-        <v>0.9595527762336076</v>
+        <v>1.700125578844194</v>
       </c>
       <c r="H23">
-        <v>0.8799012517788753</v>
+        <v>0.8714470621250712</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.981993770129009</v>
+        <v>6.395716035205282</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6100773940174236</v>
+        <v>1.900964258954289</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06845451288273807</v>
+        <v>0.2181689622409806</v>
       </c>
       <c r="D24">
-        <v>0.02208635626830002</v>
+        <v>0.01176616020525145</v>
       </c>
       <c r="E24">
-        <v>0.1061785537050852</v>
+        <v>0.2470167940506158</v>
       </c>
       <c r="F24">
-        <v>1.055061001924969</v>
+        <v>1.487262421028646</v>
       </c>
       <c r="G24">
-        <v>0.9190618865276008</v>
+        <v>1.446272339683588</v>
       </c>
       <c r="H24">
-        <v>0.8708096828345617</v>
+        <v>0.7688789430954159</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.714747040253087</v>
+        <v>5.429417884398333</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5340539142521123</v>
+        <v>1.603057703752043</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05726187007421402</v>
+        <v>0.1756995062902433</v>
       </c>
       <c r="D25">
-        <v>0.02250747300760203</v>
+        <v>0.01339127606828505</v>
       </c>
       <c r="E25">
-        <v>0.09624994052632729</v>
+        <v>0.1986576699280462</v>
       </c>
       <c r="F25">
-        <v>1.01547740891354</v>
+        <v>1.240198117680535</v>
       </c>
       <c r="G25">
-        <v>0.8788421978759402</v>
+        <v>1.197328936521473</v>
       </c>
       <c r="H25">
-        <v>0.8634946619776827</v>
+        <v>0.6707705831524891</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.426795614467665</v>
+        <v>4.412278972254342</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4526342922638378</v>
+        <v>1.293063467273228</v>
       </c>
       <c r="N25">
         <v>0</v>
